--- a/matchdatasetV5.xlsx
+++ b/matchdatasetV5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>employeeID</t>
   </si>
@@ -31,19 +31,22 @@
     <t>WorkType</t>
   </si>
   <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>Second</t>
+    <t>StartTime Auto</t>
+  </si>
+  <si>
+    <t>EndTime Auto</t>
+  </si>
+  <si>
+    <t>StartTime Manual</t>
+  </si>
+  <si>
+    <t>EndTime Manual</t>
+  </si>
+  <si>
+    <t>HoursWork Auto</t>
+  </si>
+  <si>
+    <t>HoursWork Manual</t>
   </si>
   <si>
     <t>Albert</t>
@@ -52,30 +55,6 @@
     <t>Sugianto</t>
   </si>
   <si>
-    <t>Ministry Center</t>
-  </si>
-  <si>
-    <t>Jonquil</t>
-  </si>
-  <si>
-    <t>No Bos Condo</t>
-  </si>
-  <si>
-    <t>Lloyd</t>
-  </si>
-  <si>
-    <t>Fargo</t>
-  </si>
-  <si>
-    <t>JCP</t>
-  </si>
-  <si>
-    <t>Esperanza</t>
-  </si>
-  <si>
-    <t>Phoenix 2</t>
-  </si>
-  <si>
     <t>frontdesk</t>
   </si>
   <si>
@@ -89,6 +68,132 @@
   </si>
   <si>
     <t>pestcontrol</t>
+  </si>
+  <si>
+    <t>0:00:07.102773</t>
+  </si>
+  <si>
+    <t>0:00:10.610964</t>
+  </si>
+  <si>
+    <t>0:00:07.918014</t>
+  </si>
+  <si>
+    <t>0:00:03.743941</t>
+  </si>
+  <si>
+    <t>0:00:04.922706</t>
+  </si>
+  <si>
+    <t>0:01:10.933267</t>
+  </si>
+  <si>
+    <t>0:00:10.575095</t>
+  </si>
+  <si>
+    <t>0:01:29.252430</t>
+  </si>
+  <si>
+    <t>0:00:22.546350</t>
+  </si>
+  <si>
+    <t>0:00:53.954022</t>
+  </si>
+  <si>
+    <t>0:00:15.836342</t>
+  </si>
+  <si>
+    <t>0:00:27.232056</t>
+  </si>
+  <si>
+    <t>0:00:49.175460</t>
+  </si>
+  <si>
+    <t>0:00:16.439688</t>
+  </si>
+  <si>
+    <t>0:39:38.277633</t>
+  </si>
+  <si>
+    <t>0:03:36.575308</t>
+  </si>
+  <si>
+    <t>0:07:47.639787</t>
+  </si>
+  <si>
+    <t>0:00:28.945677</t>
+  </si>
+  <si>
+    <t>0:02:29.085050</t>
+  </si>
+  <si>
+    <t>0:00:00</t>
+  </si>
+  <si>
+    <t>0:00:41.030828</t>
+  </si>
+  <si>
+    <t>2914348 days, 8:13:51.009247</t>
+  </si>
+  <si>
+    <t>2:02:14.932321</t>
+  </si>
+  <si>
+    <t>2914348 days, 5:53:31.768982</t>
+  </si>
+  <si>
+    <t>3:56:28.635774</t>
+  </si>
+  <si>
+    <t>2914347 days, 9:34:38.478210</t>
+  </si>
+  <si>
+    <t>0:00:03.742916</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>9:59:00</t>
+  </si>
+  <si>
+    <t>6:33:00</t>
+  </si>
+  <si>
+    <t>10:01:00</t>
+  </si>
+  <si>
+    <t>9:50:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>14:02:00</t>
+  </si>
+  <si>
+    <t>11:08:00</t>
+  </si>
+  <si>
+    <t>273 days, 0:00:00</t>
+  </si>
+  <si>
+    <t>3205356 days, 13:01:01</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>3245989 days, 11:02:01</t>
+  </si>
+  <si>
+    <t>8:01:00</t>
+  </si>
+  <si>
+    <t>2914348 days, 17:01:01</t>
   </si>
 </sst>
 </file>
@@ -150,11 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,13 +556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +593,11 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,34 +605,37 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.220802083333333e-05</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
         <v>43752.66075719265</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>43752.66083940067</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>7.102773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="3">
+        <v>43752.66075719265</v>
+      </c>
+      <c r="J2" s="3">
+        <v>43752.66083940067</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -531,34 +643,37 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0001228120833333333</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>43754.59831675302</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>43754.5984395651</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>10.610964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="3">
+        <v>43754.59831675302</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43754.5984395651</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -566,34 +681,37 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.164368055555556e-05</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43752.70926767093</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43752.70935931461</v>
+      </c>
+      <c r="I4" s="3">
+        <v>43752.70926767093</v>
+      </c>
+      <c r="J4" s="3">
+        <v>43752.70935931461</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
-        <v>43752.70926767093</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43752.70935931461</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>7.918014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -601,34 +719,37 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.333265046296296e-05</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>43753.4297817632</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>43753.42982509585</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>3.743941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="3">
+        <v>43753.4297817632</v>
+      </c>
+      <c r="J5" s="3">
+        <v>43753.42982508398</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -636,34 +757,37 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.697576388888889e-05</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
         <v>43753.43000746721</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>43753.43006444297</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>4.922706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="3">
+        <v>43753.43000746721</v>
+      </c>
+      <c r="J6" s="3">
+        <v>43753.43006444297</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -671,34 +795,37 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.000820986886574074</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
         <v>43752.79260766219</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>43752.79342864907</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>10.933267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="3">
+        <v>43752.79260766219</v>
+      </c>
+      <c r="J7" s="3">
+        <v>43752.79342864907</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,34 +833,37 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0001223969328703704</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>43753.59442640188</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>43753.59454879881</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>10.575095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="3">
+        <v>43753.59442640188</v>
+      </c>
+      <c r="J8" s="3">
+        <v>43753.59454879881</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -741,34 +871,37 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.001033014236111111</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3">
         <v>43761.67356772816</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>43761.67460074239</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>29.25243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="3">
+        <v>43761.04166666666</v>
+      </c>
+      <c r="J9" s="3">
+        <v>43761.66666666666</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -776,34 +909,37 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.000260953125</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
         <v>43761.67692165983</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>43761.67718261295</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>22.54635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="3">
+        <v>43761.16666666666</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43761.58263888889</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -811,34 +947,37 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.0006244678472222223</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
         <v>43761.67976832121</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>43761.68039278907</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>53.954022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="3">
+        <v>43761.18541666667</v>
+      </c>
+      <c r="J11" s="3">
+        <v>43761.45833333334</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -846,34 +985,37 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.0001832909953703704</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
         <v>43761.6839216977</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>43761.68410498869</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>15.836342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="3">
+        <v>43761.08263888889</v>
+      </c>
+      <c r="J12" s="3">
+        <v>43761.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -881,34 +1023,37 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.0003151858333333333</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
         <v>43761.68722475476</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>43761.68753994059</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>27.232056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="3">
+        <v>43761.17291666667</v>
+      </c>
+      <c r="J13" s="3">
+        <v>43761.58263888889</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -916,34 +1061,37 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.0005691604166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
         <v>43761.68907852492</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>43761.68964768534</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>49.17546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="3">
+        <v>43761.04166666666</v>
+      </c>
+      <c r="J14" s="3">
+        <v>43761.5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,34 +1099,37 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.0001902741666666667</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
         <v>43761.69196012164</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>43761.69215039581</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>16.439688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" s="3">
+        <v>43761.04166666666</v>
+      </c>
+      <c r="J15" s="3">
+        <v>43761.54166666666</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -986,34 +1137,37 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.02752636149305556</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3">
         <v>43761.69493182989</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>43761.72245819138</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>38.27763300000015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="3">
+        <v>43761.08263888889</v>
+      </c>
+      <c r="J16" s="3">
+        <v>43761.66736111111</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1021,34 +1175,37 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.002506658657407407</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
         <v>43761.72350101497</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>43761.72600767363</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>36.57530800000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" s="3">
+        <v>43761.04166666666</v>
+      </c>
+      <c r="J17" s="3">
+        <v>43761.54166666666</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1056,34 +1213,37 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.005412497534722223</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
         <v>43761.8945397005</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>43761.89995219803</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>47.63978700000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="3">
+        <v>43761.08263888889</v>
+      </c>
+      <c r="J18" s="3">
+        <v>43761.58263888889</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1091,34 +1251,37 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.0003350194097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
         <v>43761.91145255493</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>43761.91178757434</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>28.945677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="3">
+        <v>43761.04166666666</v>
+      </c>
+      <c r="J19" s="3">
+        <v>43761.54166666666</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1126,34 +1289,37 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.001725521412037037</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
         <v>43752.50413433206</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>43752.50585985347</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>29.08505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="3">
+        <v>43752.04166666666</v>
+      </c>
+      <c r="J20" s="3">
+        <v>43752.50555555556</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1161,31 +1327,28 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
         <v>43761.9141974842</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="3">
+        <v>43761.04166666666</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1193,34 +1356,37 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.0004748938425925926</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="2">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3">
         <v>43752.50621143312</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>43752.50668632695</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>41.030828</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" s="3">
+        <v>43479</v>
+      </c>
+      <c r="J22" s="3">
+        <v>43752</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1228,34 +1394,37 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2914348.342951496</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3">
         <v>43752.69942118912</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>2958101.042372685</v>
       </c>
-      <c r="I23">
-        <v>69944360</v>
-      </c>
-      <c r="J23">
-        <v>13</v>
-      </c>
-      <c r="K23">
-        <v>51.00924682617188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" s="3">
+        <v>-247256.5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2958101.042372685</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1263,34 +1432,37 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.08489505001157407</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3">
         <v>43752.71092398038</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>43752.79581903039</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>14.93232100000023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" s="3">
+        <v>43752.375</v>
+      </c>
+      <c r="J24" s="3">
+        <v>43752.79166666666</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1298,34 +1470,37 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2914348.245506586</v>
+      </c>
+      <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>43752.79686609962</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>2958101.042372685</v>
       </c>
-      <c r="I25">
-        <v>69944357</v>
-      </c>
-      <c r="J25">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>31.76898193359375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" s="3">
+        <v>-287889.4173611111</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2958101.042372685</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1333,34 +1508,37 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.1642203214583333</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3">
         <v>43753.42604207517</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>43753.59026239663</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>28.63577400000031</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26" s="3">
+        <v>43753.25</v>
+      </c>
+      <c r="J26" s="3">
+        <v>43753.58402777778</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1368,31 +1546,34 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2914347.399056461</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
         <v>43753.64331622446</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>2958101.042372685</v>
       </c>
-      <c r="I27">
-        <v>69944337</v>
-      </c>
-      <c r="J27">
-        <v>34</v>
-      </c>
-      <c r="K27">
-        <v>38.47821044921875</v>
+      <c r="I27" s="3">
+        <v>43752.33333333334</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2958101.042372685</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
